--- a/Base/Teams/Rams/Distributions.xlsx
+++ b/Base/Teams/Rams/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.988391356294429, 1.9890011045974525, -1.8837833398085264, 2.5403893784025544)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2612789157306104, 1.0127400627294034, 2.743710983847156, 3.748994562142104)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7159507831231962, 1.0853238796062077, 1.0621132937371063, 2.6506833649678203)</t>
-  </si>
-  <si>
-    <t>NIG(0.7048622814593655, 0.49124902236530166, 5.703013576838739, 4.830743524439802)</t>
+    <t>MIE(10.711095873482996, 6.0872926867768555, -11.786133174306897, 13.67829851081444)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2667164764952, 1.0016588367827646, 2.6631084263975, 3.6329415471151116)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7610902695246817, 1.101439917474072, 0.8272001418014605, 2.648674654969292)</t>
+  </si>
+  <si>
+    <t>NIG(0.6987949562584388, 0.47534940671216275, 5.786723221501521, 4.9053860346577105)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Rams/Distributions.xlsx
+++ b/Base/Teams/Rams/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(10.711095873482996, 6.0872926867768555, -11.786133174306897, 13.67829851081444)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2667164764952, 1.0016588367827646, 2.6631084263975, 3.6329415471151116)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7610902695246817, 1.101439917474072, 0.8272001418014605, 2.648674654969292)</t>
-  </si>
-  <si>
-    <t>NIG(0.6987949562584388, 0.47534940671216275, 5.786723221501521, 4.9053860346577105)</t>
+    <t>MIE(47.33792324802306, 9.996989697741565, -25.92118911710068, 24.506680713814177)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2261633454245995, 0.9763695986829459, 2.7369937705124294, 3.5696905076586223)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8428691730978397, 1.0928559955026667, 0.6216691158531327, 2.556783385832321)</t>
+  </si>
+  <si>
+    <t>NIG(0.7745491532141401, 0.5254706626336795, 5.6398847800278045, 5.193957139610973)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Rams/Distributions.xlsx
+++ b/Base/Teams/Rams/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>MIE(47.33792324802306, 9.996989697741565, -25.92118911710068, 24.506680713814177)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2261633454245995, 0.9763695986829459, 2.7369937705124294, 3.5696905076586223)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8428691730978397, 1.0928559955026667, 0.6216691158531327, 2.556783385832321)</t>
-  </si>
-  <si>
-    <t>NIG(0.7745491532141401, 0.5254706626336795, 5.6398847800278045, 5.193957139610973)</t>
+    <t>JSU(-1.3475791894612454, 1.4254374950085194, -0.268498227096124, 3.437979507283086)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2083159178476746, 0.975681428223216, 2.8081563777162395, 3.529756408571208)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8622460627788102, 1.135874730674988, 0.5215392680264201, 2.7304826363852626)</t>
+  </si>
+  <si>
+    <t>NIG(0.7491766071120747, 0.5089096743473225, 5.705237130142033, 5.129588123281961)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Rams/Distributions.xlsx
+++ b/Base/Teams/Rams/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.3475791894612454, 1.4254374950085194, -0.268498227096124, 3.437979507283086)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2083159178476746, 0.975681428223216, 2.8081563777162395, 3.529756408571208)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8622460627788102, 1.135874730674988, 0.5215392680264201, 2.7304826363852626)</t>
-  </si>
-  <si>
-    <t>NIG(0.7491766071120747, 0.5089096743473225, 5.705237130142033, 5.129588123281961)</t>
+    <t>JSU(-1.2840078650272977, 1.4202899036264873, -0.15642304795461545, 3.5236745814291814)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2791876249815466, 1.0161284618576734, 2.582774038851654, 3.6756187909441014)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8408061581559201, 1.1123423849647511, 0.6150053495213439, 2.6819460436439813)</t>
+  </si>
+  <si>
+    <t>NIG(0.8581562897097794, 0.5868966586878821, 5.443565967109327, 5.349445340741092)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Rams/Distributions.xlsx
+++ b/Base/Teams/Rams/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.2840078650272977, 1.4202899036264873, -0.15642304795461545, 3.5236745814291814)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2791876249815466, 1.0161284618576734, 2.582774038851654, 3.6756187909441014)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8408061581559201, 1.1123423849647511, 0.6150053495213439, 2.6819460436439813)</t>
-  </si>
-  <si>
-    <t>NIG(0.8581562897097794, 0.5868966586878821, 5.443565967109327, 5.349445340741092)</t>
+    <t>JSU(-1.1142012660484941, 1.3176538011826278, 0.06027167841068085, 3.3895117290585137)</t>
+  </si>
+  <si>
+    <t>JSU(-1.3233411354060733, 1.0184286301860583, 2.493018866458735, 3.6158934158163936)</t>
+  </si>
+  <si>
+    <t>NIG(0.8723006976325841, 0.6010894403174518, 1.1616923223606455, 2.9423732139194296)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8811274555132748, 1.1522770564134794, 4.051790353589574, 5.250792110200804)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Rams/Distributions.xlsx
+++ b/Base/Teams/Rams/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.1142012660484941, 1.3176538011826278, 0.06027167841068085, 3.3895117290585137)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3233411354060733, 1.0184286301860583, 2.493018866458735, 3.6158934158163936)</t>
-  </si>
-  <si>
-    <t>NIG(0.8723006976325841, 0.6010894403174518, 1.1616923223606455, 2.9423732139194296)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8811274555132748, 1.1522770564134794, 4.051790353589574, 5.250792110200804)</t>
+    <t>JSU(-1.0739450830424986, 1.3092572159085827, 0.09492659788669949, 3.37925668276948)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2615397936371018, 1.001447542101232, 2.73209754060362, 3.6575022649221447)</t>
+  </si>
+  <si>
+    <t>NIG(0.8934692927876992, 0.6194881118464688, 1.119879580525911, 2.938698980949743)</t>
+  </si>
+  <si>
+    <t>NIG(0.8620945837649352, 0.6019800251659057, 5.156222081104403, 5.4871546565516836)</t>
   </si>
 </sst>
 </file>
